--- a/biology/Botanique/Puelia_schumanniana/Puelia_schumanniana.xlsx
+++ b/biology/Botanique/Puelia_schumanniana/Puelia_schumanniana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Puelia schumanniana Pilg. est une espèce de plantes monocotylédones de la famille des Poaceae, sous-famille des Puelioideae, présente en Afrique tropicale, endémique du Cameroun et du Gabon.
 </t>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'épithète spécifique, schumanniana, rend hommage au botaniste allemand Karl Schumann (1851-1904)[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'épithète spécifique, schumanniana, rend hommage au botaniste allemand Karl Schumann (1851-1904).
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son habitat est celui de la forêt dense humide sempervirente, au Gabon et au Cameroun, où on la trouve dans la forêt atlantique du sud-ouest, également vers Nanga-Eboko[3].
-Plusieurs spécimens ont été collectés en mai 1899 par Georg August Zenker à Bipindi, dans la Région du Sud[4]. L'holotype a été détruit[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son habitat est celui de la forêt dense humide sempervirente, au Gabon et au Cameroun, où on la trouve dans la forêt atlantique du sud-ouest, également vers Nanga-Eboko.
+Plusieurs spécimens ont été collectés en mai 1899 par Georg August Zenker à Bipindi, dans la Région du Sud. L'holotype a été détruit.
 </t>
         </is>
       </c>
@@ -574,14 +590,16 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une herbe vivace, rhizomateuse (aux rhizomes courts, pachyformes, noueux), aux tiges dressées de 50 à 150 cm de long[3].
-Les feuilles présentent une gaine glabre, sans ligule, et un limbe allongé elliptique à l'apex acuminé, de 25 à 30 cm de long sur 60 à 90 mm de large, attaché à la gaine par un très court pseudo-pétiole. Ce limbe se caractérise par des nervures transversales distinctes[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une herbe vivace, rhizomateuse (aux rhizomes courts, pachyformes, noueux), aux tiges dressées de 50 à 150 cm de long.
+Les feuilles présentent une gaine glabre, sans ligule, et un limbe allongé elliptique à l'apex acuminé, de 25 à 30 cm de long sur 60 à 90 mm de large, attaché à la gaine par un très court pseudo-pétiole. Ce limbe se caractérise par des nervures transversales distinctes.
 L'inflorescence est une panicule terminale oblongue ou globuleuse, de 3 à 4 cm de long, portée par une tige distincte, sans feuilles.
 Les épillets, solitaires, sessiles, de forme ovale, comprimés latéralement, de 15 à 17 mm de long, sont composés de 4 à 5 fleurons stériles à la base et d'un fleuron fertile, sans extension du rachillet. Ils se désarticulent à maturité sous chaque fleuron fertile. Ils sont sous-tendus par deux glumes similaires, herbacées, persistantes, plus courtes que l'épillet, la glume inférieure étant légèrement plus courte que la glume supérieure.
 Les fleurons comptent 3 lodicules membraneux, 6 anthères dont les filament sont soudés en un tube, 3 stigmates papilleux surmontant un ovaire ombonné.
-Le fruit est un caryopse au péricarpe adhérent[5].
+Le fruit est un caryopse au péricarpe adhérent.
 </t>
         </is>
       </c>
